--- a/biology/Botanique/Square_Raymond-Queneau/Square_Raymond-Queneau.xlsx
+++ b/biology/Botanique/Square_Raymond-Queneau/Square_Raymond-Queneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Raymond-Queneau est un espace vert du 18e arrondissement de Paris, situé rue Raymond-Queneau.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par le 22, rue Raymond-Queneau.
 Il est desservi par la ligne 12 à la station Porte de la Chapelle et par la ligne 3b du tramway d'Île-de-France à l'arrêt Porte de la Chapelle.
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est équipé d'une aire de jeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est équipé d'une aire de jeux.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom à sa proximité avec la rue Raymond-Queneau, laquelle rend hommage à Raymond Queneau (1903-1976), un romancier, poète, dramaturge français.
 </t>
@@ -606,10 +624,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une surface de 1 645 m2, il a été ouvert en 1989[2], rénové en 2005, et à cette occasion planté de cerisiers.
-Les riverains ont coutume de rendre hommage à ces cerisiers lors de leur floraison annuelle, par un repas de type hanami[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une surface de 1 645 m2, il a été ouvert en 1989, rénové en 2005, et à cette occasion planté de cerisiers.
+Les riverains ont coutume de rendre hommage à ces cerisiers lors de leur floraison annuelle, par un repas de type hanami.
 </t>
         </is>
       </c>
